--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T12:21:48+00:00</t>
+    <t>2024-09-13T13:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:09:48+00:00</t>
+    <t>2024-09-13T13:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:57:40+00:00</t>
+    <t>2024-09-16T07:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:30:20+00:00</t>
+    <t>2024-09-16T07:42:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8618" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8618" uniqueCount="1106">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:42:16+00:00</t>
+    <t>2025-01-14T13:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3138,23 +3138,7 @@
     <t>Quantity of the prescription element in the dosage</t>
   </si>
   <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
     <t>quantite</t>
-  </si>
-  <si>
-    <t>n/a,PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.doseAndRate.rate[x]</t>
@@ -27187,7 +27171,7 @@
         <v>20</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>925</v>
@@ -27196,10 +27180,10 @@
         <v>995</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>996</v>
+        <v>897</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>997</v>
+        <v>898</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>899</v>
@@ -27263,13 +27247,13 @@
         <v>20</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>998</v>
+        <v>105</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>20</v>
@@ -27281,15 +27265,15 @@
         <v>20</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>1000</v>
+        <v>901</v>
       </c>
       <c r="AQ191" t="s" s="2">
-        <v>1001</v>
+        <v>902</v>
       </c>
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>904</v>
@@ -27412,13 +27396,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>904</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>20</v>
@@ -27437,19 +27421,19 @@
         <v>20</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>925</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>996</v>
+        <v>907</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>997</v>
+        <v>908</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>909</v>
@@ -27513,13 +27497,13 @@
         <v>20</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>998</v>
+        <v>105</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>20</v>
@@ -27531,15 +27515,15 @@
         <v>20</v>
       </c>
       <c r="AP193" t="s" s="2">
-        <v>1000</v>
+        <v>911</v>
       </c>
       <c r="AQ193" t="s" s="2">
-        <v>1001</v>
+        <v>912</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>914</v>
@@ -27664,7 +27648,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>924</v>
@@ -27789,7 +27773,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>933</v>
@@ -27912,10 +27896,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27938,13 +27922,13 @@
         <v>20</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -27995,7 +27979,7 @@
         <v>20</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -28019,13 +28003,13 @@
         <v>20</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP197" t="s" s="2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AQ197" t="s" s="2">
         <v>20</v>
@@ -28033,10 +28017,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -28154,10 +28138,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -28277,10 +28261,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -28364,7 +28348,7 @@
         <v>20</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -28402,10 +28386,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -28428,16 +28412,16 @@
         <v>20</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -28487,7 +28471,7 @@
         <v>20</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -28517,7 +28501,7 @@
         <v>20</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="AQ201" t="s" s="2">
         <v>20</v>
@@ -28525,10 +28509,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -28646,10 +28630,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -28769,10 +28753,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -28856,7 +28840,7 @@
         <v>20</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -28894,10 +28878,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -28923,10 +28907,10 @@
         <v>925</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -28977,7 +28961,7 @@
         <v>20</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -29007,7 +28991,7 @@
         <v>20</v>
       </c>
       <c r="AP205" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AQ205" t="s" s="2">
         <v>20</v>
@@ -29015,10 +28999,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -29041,13 +29025,13 @@
         <v>20</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -29098,7 +29082,7 @@
         <v>20</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -29128,7 +29112,7 @@
         <v>20</v>
       </c>
       <c r="AP206" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AQ206" t="s" s="2">
         <v>20</v>
@@ -29136,10 +29120,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -29162,13 +29146,13 @@
         <v>20</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L207" t="s" s="2">
-        <v>1038</v>
-      </c>
       <c r="M207" t="s" s="2">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -29219,7 +29203,7 @@
         <v>20</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
@@ -29249,7 +29233,7 @@
         <v>20</v>
       </c>
       <c r="AP207" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AQ207" t="s" s="2">
         <v>20</v>
@@ -29257,10 +29241,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -29286,16 +29270,16 @@
         <v>241</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>20</v>
@@ -29344,7 +29328,7 @@
         <v>20</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -29368,13 +29352,13 @@
         <v>20</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="AQ208" t="s" s="2">
         <v>20</v>
@@ -29382,10 +29366,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -29411,13 +29395,13 @@
         <v>805</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -29467,7 +29451,7 @@
         <v>20</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -29491,24 +29475,24 @@
         <v>20</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="AQ209" t="s" s="2">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -29534,10 +29518,10 @@
         <v>925</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -29588,7 +29572,7 @@
         <v>20</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -29612,24 +29596,24 @@
         <v>20</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AQ210" t="s" s="2">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -29652,16 +29636,16 @@
         <v>20</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -29711,7 +29695,7 @@
         <v>20</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -29735,13 +29719,13 @@
         <v>20</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP211" t="s" s="2">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="AQ211" t="s" s="2">
         <v>20</v>
@@ -29749,10 +29733,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -29778,10 +29762,10 @@
         <v>248</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -29832,7 +29816,7 @@
         <v>20</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -29862,7 +29846,7 @@
         <v>492</v>
       </c>
       <c r="AP212" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="AQ212" t="s" s="2">
         <v>20</v>
@@ -29870,10 +29854,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -29899,10 +29883,10 @@
         <v>520</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -29953,7 +29937,7 @@
         <v>20</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -29983,7 +29967,7 @@
         <v>20</v>
       </c>
       <c r="AP213" t="s" s="2">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="AQ213" t="s" s="2">
         <v>20</v>
@@ -29991,10 +29975,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -30020,10 +30004,10 @@
         <v>211</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -30054,7 +30038,7 @@
       </c>
       <c r="Y214" s="2"/>
       <c r="Z214" t="s" s="2">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>20</v>
@@ -30072,7 +30056,7 @@
         <v>20</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -30102,7 +30086,7 @@
         <v>20</v>
       </c>
       <c r="AP214" t="s" s="2">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AQ214" t="s" s="2">
         <v>20</v>
@@ -30110,10 +30094,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -30136,13 +30120,13 @@
         <v>20</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -30193,7 +30177,7 @@
         <v>20</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -30208,7 +30192,7 @@
         <v>105</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>20</v>
@@ -30217,13 +30201,13 @@
         <v>20</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP215" t="s" s="2">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="AQ215" t="s" s="2">
         <v>20</v>
@@ -30231,10 +30215,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -30352,10 +30336,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -30475,10 +30459,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -30562,7 +30546,7 @@
         <v>20</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -30600,10 +30584,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -30626,16 +30610,16 @@
         <v>20</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -30664,10 +30648,10 @@
         <v>817</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>20</v>
@@ -30685,7 +30669,7 @@
         <v>20</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>93</v>
@@ -30709,24 +30693,24 @@
         <v>20</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP219" t="s" s="2">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="AQ219" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -30752,10 +30736,10 @@
         <v>211</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -30785,10 +30769,10 @@
         <v>352</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>20</v>
@@ -30806,7 +30790,7 @@
         <v>20</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -30836,18 +30820,18 @@
         <v>20</v>
       </c>
       <c r="AP220" t="s" s="2">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="AQ220" t="s" s="2">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -30870,16 +30854,16 @@
         <v>20</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -30929,7 +30913,7 @@
         <v>20</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -30950,7 +30934,7 @@
         <v>20</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>20</v>
@@ -30959,7 +30943,7 @@
         <v>20</v>
       </c>
       <c r="AP221" t="s" s="2">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="AQ221" t="s" s="2">
         <v>20</v>

--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:38:58+00:00</t>
+    <t>2025-01-17T14:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/test-page/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:32:11+00:00</t>
+    <t>2025-01-17T14:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
